--- a/Packet/PacketData/Player.xlsx
+++ b/Packet/PacketData/Player.xlsx
@@ -8,7 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="プレイヤー生成" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="プレイヤーリスト" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="プレイヤーデータ" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="プレイヤー生成" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,33 +22,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
   <si>
+    <t xml:space="preserve">PacketPlayerList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$PACKET_ID$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PlayerList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$BASE_CLASS_NAME$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketBase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$INCLUDE$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PlayerData.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FlexArray.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$MEMBER$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FlexArray&lt;PlayerData&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PlayerData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uuid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketSpawnPlayer</t>
   </si>
   <si>
-    <t xml:space="preserve">$PACKET_ID$</t>
-  </si>
-  <si>
     <t xml:space="preserve">SpawnPlayer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$BASE_CLASS_NAME$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PacketBase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$MEMBER$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">u32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uuid</t>
   </si>
 </sst>
 </file>
@@ -156,9 +191,89 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -174,7 +289,77 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -182,7 +367,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -195,19 +380,19 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>

--- a/Packet/PacketData/Player.xlsx
+++ b/Packet/PacketData/Player.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤーリスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -69,7 +69,7 @@
     <t xml:space="preserve">Uuid</t>
   </si>
   <si>
-    <t xml:space="preserve">s32</t>
+    <t xml:space="preserve">float</t>
   </si>
   <si>
     <t xml:space="preserve">X</t>
@@ -193,7 +193,7 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -273,8 +273,8 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Packet/PacketData/Player.xlsx
+++ b/Packet/PacketData/Player.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotation</t>
   </si>
   <si>
     <t xml:space="preserve">PacketSpawnPlayer</t>
@@ -271,10 +274,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -323,6 +326,17 @@
       </c>
       <c r="C4" s="0" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -359,7 +373,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -367,7 +381,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Packet/PacketData/Player.xlsx
+++ b/Packet/PacketData/Player.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤーリスト" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="プレイヤーデータ" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="プレイヤー生成" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="プレイヤー退出" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -85,6 +86,12 @@
   </si>
   <si>
     <t xml:space="preserve">SpawnPlayer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketExitPlayer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExitPlayer</t>
   </si>
 </sst>
 </file>
@@ -276,7 +283,7 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -412,4 +419,68 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Packet/PacketData/Player.xlsx
+++ b/Packet/PacketData/Player.xlsx
@@ -11,7 +11,8 @@
     <sheet name="プレイヤーリスト" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="プレイヤーデータ" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="プレイヤー生成" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="プレイヤー退出" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="プレイヤー移動" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="プレイヤー退出" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -86,6 +87,12 @@
   </si>
   <si>
     <t xml:space="preserve">SpawnPlayer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketMovePlayer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MovePlayer</t>
   </si>
   <si>
     <t xml:space="preserve">PacketExitPlayer</t>
@@ -426,9 +433,106 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -444,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -452,7 +556,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Packet/PacketData/Player.xlsx
+++ b/Packet/PacketData/Player.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤーリスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,8 @@
     <sheet name="プレイヤー生成" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="プレイヤー移動" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="プレイヤー退出" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="プレイヤーリスポン要求" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="プレイヤーリスポン" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="29">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -99,6 +101,18 @@
   </si>
   <si>
     <t xml:space="preserve">ExitPlayer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketRespawnRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RespawnRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketPlayerRespawn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PlayerRespawn</t>
   </si>
 </sst>
 </file>
@@ -435,7 +449,7 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -587,4 +601,143 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Packet/PacketData/Player.xlsx
+++ b/Packet/PacketData/Player.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤーリスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="32">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -83,6 +83,15 @@
   </si>
   <si>
     <t xml:space="preserve">Rotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaxHp</t>
   </si>
   <si>
     <t xml:space="preserve">PacketSpawnPlayer</t>
@@ -225,7 +234,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="C6 C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -302,10 +311,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="1" sqref="C6 B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -367,6 +376,28 @@
         <v>18</v>
       </c>
     </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -383,10 +414,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -401,7 +432,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -409,7 +440,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -429,6 +460,28 @@
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -450,7 +503,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="1" sqref="C6 C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -465,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -473,7 +526,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -547,7 +600,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="C6 C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -562,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -570,7 +623,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -610,8 +663,8 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="C6 C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -626,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -634,7 +687,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -664,7 +717,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="C6 A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -679,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -687,7 +740,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Packet/PacketData/Player.xlsx
+++ b/Packet/PacketData/Player.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="32">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -234,7 +234,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="C6 C7"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -314,7 +314,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="1" sqref="C6 B8"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -414,10 +414,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -484,6 +484,28 @@
         <v>21</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -503,7 +525,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="1" sqref="C6 C8"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -600,7 +622,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="C6 C4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -664,7 +686,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="C6 C4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -717,7 +739,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="C6 A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Packet/PacketData/Player.xlsx
+++ b/Packet/PacketData/Player.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤーリスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="33">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z</t>
   </si>
   <si>
     <t xml:space="preserve">Rotation</t>
@@ -311,10 +314,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -381,10 +384,10 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -392,10 +395,21 @@
         <v>9</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -414,10 +428,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -432,7 +446,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -440,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -467,10 +481,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -478,10 +492,10 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -504,6 +518,17 @@
       </c>
       <c r="C8" s="0" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -522,7 +547,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
@@ -540,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -548,7 +573,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -601,6 +626,17 @@
       </c>
       <c r="C7" s="0" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -637,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -645,7 +681,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -701,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -709,7 +745,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -736,10 +772,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -754,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -762,7 +798,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -804,6 +840,17 @@
       </c>
       <c r="C6" s="0" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Player.xlsx
+++ b/Packet/PacketData/Player.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="プレイヤーリスト" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="プレイヤーデータ" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="プレイヤーデータ" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="プレイヤーリスト" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="プレイヤー生成" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="プレイヤー移動" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="プレイヤー退出" sheetId="5" state="visible" r:id="rId6"/>
@@ -26,11 +26,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="36">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
   <si>
+    <t xml:space="preserve">PlayerData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$MEMBER$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uuid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">float</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaxHp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">std::string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketPlayerList</t>
   </si>
   <si>
@@ -55,52 +97,19 @@
     <t xml:space="preserve">FlexArray.h</t>
   </si>
   <si>
-    <t xml:space="preserve">$MEMBER$</t>
-  </si>
-  <si>
     <t xml:space="preserve">FlexArray&lt;PlayerData&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">List</t>
   </si>
   <si>
-    <t xml:space="preserve">PlayerData</t>
-  </si>
-  <si>
-    <t xml:space="preserve">u32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uuid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">float</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaxHp</t>
-  </si>
-  <si>
     <t xml:space="preserve">PacketSpawnPlayer</t>
   </si>
   <si>
     <t xml:space="preserve">SpawnPlayer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data</t>
   </si>
   <si>
     <t xml:space="preserve">PacketMovePlayer</t>
@@ -234,200 +243,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -446,7 +261,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -454,81 +269,239 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>18</v>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -565,78 +538,78 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -673,34 +646,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -737,23 +710,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -774,7 +747,7 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -790,67 +763,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Player.xlsx
+++ b/Packet/PacketData/Player.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤーデータ" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="38">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job</t>
   </si>
   <si>
     <t xml:space="preserve">PacketPlayerList</t>
@@ -243,10 +249,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -352,6 +358,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -370,8 +387,8 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -386,39 +403,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -426,10 +443,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -451,7 +468,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -466,31 +483,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -501,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -523,7 +540,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -538,23 +555,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -631,7 +648,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -646,23 +663,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -695,7 +712,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -710,23 +727,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -748,7 +765,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -763,23 +780,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Packet/PacketData/Player.xlsx
+++ b/Packet/PacketData/Player.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤーデータ" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="50">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -43,42 +43,69 @@
     <t xml:space="preserve">Uuid</t>
   </si>
   <si>
+    <t xml:space="preserve">ＵＵＩＤ</t>
+  </si>
+  <si>
     <t xml:space="preserve">float</t>
   </si>
   <si>
     <t xml:space="preserve">X</t>
   </si>
   <si>
+    <t xml:space="preserve">Ｘ座標</t>
+  </si>
+  <si>
     <t xml:space="preserve">Y</t>
   </si>
   <si>
+    <t xml:space="preserve">Ｙ座標</t>
+  </si>
+  <si>
     <t xml:space="preserve">Z</t>
   </si>
   <si>
+    <t xml:space="preserve">Ｚ座標</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rotation</t>
   </si>
   <si>
+    <t xml:space="preserve">回転</t>
+  </si>
+  <si>
     <t xml:space="preserve">s32</t>
   </si>
   <si>
     <t xml:space="preserve">Hp</t>
   </si>
   <si>
+    <t xml:space="preserve">ＨＰ</t>
+  </si>
+  <si>
     <t xml:space="preserve">MaxHp</t>
   </si>
   <si>
+    <t xml:space="preserve">最大ＨＰ</t>
+  </si>
+  <si>
     <t xml:space="preserve">std::string</t>
   </si>
   <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
+    <t xml:space="preserve">名前</t>
+  </si>
+  <si>
     <t xml:space="preserve">u8</t>
   </si>
   <si>
     <t xml:space="preserve">Job</t>
   </si>
   <si>
+    <t xml:space="preserve">ジョブ</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketPlayerList</t>
   </si>
   <si>
@@ -109,6 +136,9 @@
     <t xml:space="preserve">List</t>
   </si>
   <si>
+    <t xml:space="preserve">プレイヤーリスト</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketSpawnPlayer</t>
   </si>
   <si>
@@ -118,10 +148,16 @@
     <t xml:space="preserve">Data</t>
   </si>
   <si>
+    <t xml:space="preserve">プレイヤーデータ</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketMovePlayer</t>
   </si>
   <si>
     <t xml:space="preserve">MovePlayer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UUID</t>
   </si>
   <si>
     <t xml:space="preserve">PacketExitPlayer</t>
@@ -249,10 +285,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -280,16 +316,22 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -297,10 +339,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -308,10 +353,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -319,10 +367,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -330,10 +381,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -341,10 +395,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -352,10 +409,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -363,10 +423,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -385,10 +448,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -403,39 +466,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -443,10 +506,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -465,10 +531,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -483,31 +549,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -518,7 +584,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -537,10 +606,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -555,23 +624,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -584,16 +653,22 @@
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -601,10 +676,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -612,10 +690,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -623,10 +704,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -645,10 +729,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -663,23 +747,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -691,6 +775,9 @@
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -712,7 +799,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -727,23 +814,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -762,10 +849,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -780,23 +867,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -809,16 +896,22 @@
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -826,10 +919,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -837,10 +933,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
